--- a/calendar-2020/calendar-2020.xlsx
+++ b/calendar-2020/calendar-2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\calendars\calendar-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7351A06-B240-4E68-AE25-0F261E034135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B56A81-6CE1-44D5-BF14-4F3ABFBC72A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B5A2DB5-5F90-46CE-8756-FCA2FB69F658}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.21875" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="4" customWidth="1"/>
     <col min="3" max="39" width="3.33203125" style="1" customWidth="1"/>
     <col min="40" max="40" width="2.21875" customWidth="1"/>
   </cols>

--- a/calendar-2020/calendar-2020.xlsx
+++ b/calendar-2020/calendar-2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\calendars\calendar-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B56A81-6CE1-44D5-BF14-4F3ABFBC72A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ADB4AF-302C-4002-97E9-53FB54DE1CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B5A2DB5-5F90-46CE-8756-FCA2FB69F658}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AN14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,7 @@
       <c r="G4" s="11">
         <v>3</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>4</v>
       </c>
       <c r="I4" s="11">
@@ -784,7 +784,7 @@
       <c r="L4" s="7">
         <v>8</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>9</v>
       </c>
       <c r="N4" s="11">
@@ -981,7 +981,7 @@
       <c r="G6" s="11">
         <v>5</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>6</v>
       </c>
       <c r="I6" s="11">
@@ -996,7 +996,7 @@
       <c r="L6" s="7">
         <v>10</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>11</v>
       </c>
       <c r="N6" s="11">
@@ -1179,7 +1179,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>1</v>
       </c>
       <c r="I8" s="11">
@@ -1194,7 +1194,7 @@
       <c r="L8" s="7">
         <v>5</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>6</v>
       </c>
       <c r="N8" s="11">
@@ -1391,7 +1391,7 @@
       <c r="G10" s="11">
         <v>1</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>2</v>
       </c>
       <c r="I10" s="11">
@@ -1406,7 +1406,7 @@
       <c r="L10" s="7">
         <v>6</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>7</v>
       </c>
       <c r="N10" s="11">
@@ -1603,7 +1603,7 @@
       <c r="G12" s="11">
         <v>3</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>4</v>
       </c>
       <c r="I12" s="11">
@@ -1618,7 +1618,7 @@
       <c r="L12" s="7">
         <v>8</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>9</v>
       </c>
       <c r="N12" s="11">
@@ -1692,7 +1692,6 @@
       <c r="AN12" s="13"/>
     </row>
     <row r="13" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
